--- a/DtTigo.xlsx
+++ b/DtTigo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\FacturaTigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\FacturaTigo\FacturaTigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36403C0C-E3CC-4EB1-9613-95796873A1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B49379E-33F9-4C8C-ADE0-BFBDDCD6CFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Correo</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>EJEMPLO@FRANKLINOFIMATIC.COM</t>
+  </si>
+  <si>
+    <t>00002+65548</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,9 +499,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>1143132585</v>
+    <row r="2" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
